--- a/Code/Results/Cases/Case_3_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.025763602525653</v>
+        <v>1.04875610185102</v>
       </c>
       <c r="D2">
-        <v>1.044681078060738</v>
+        <v>1.056938332385505</v>
       </c>
       <c r="E2">
-        <v>1.038527297463739</v>
+        <v>1.05639297797345</v>
       </c>
       <c r="F2">
-        <v>1.049078558090962</v>
+        <v>1.067956458803336</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059917422393819</v>
+        <v>1.048502342011862</v>
       </c>
       <c r="J2">
-        <v>1.047200117521649</v>
+        <v>1.053798165644134</v>
       </c>
       <c r="K2">
-        <v>1.055551146211219</v>
+        <v>1.059674671496669</v>
       </c>
       <c r="L2">
-        <v>1.049474763513647</v>
+        <v>1.059130812873581</v>
       </c>
       <c r="M2">
-        <v>1.059894010415146</v>
+        <v>1.070662931607358</v>
       </c>
       <c r="N2">
-        <v>1.048687261804063</v>
+        <v>1.055294679911688</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030032542074038</v>
+        <v>1.049659615628725</v>
       </c>
       <c r="D3">
-        <v>1.048063756317489</v>
+        <v>1.057675328773298</v>
       </c>
       <c r="E3">
-        <v>1.042102376135825</v>
+        <v>1.05719811417175</v>
       </c>
       <c r="F3">
-        <v>1.053010569107575</v>
+        <v>1.068846106531008</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061450476489333</v>
+        <v>1.048764196934572</v>
       </c>
       <c r="J3">
-        <v>1.049736675313427</v>
+        <v>1.054350910187309</v>
       </c>
       <c r="K3">
-        <v>1.058116481104314</v>
+        <v>1.060225600802422</v>
       </c>
       <c r="L3">
-        <v>1.052223464963932</v>
+        <v>1.059749600776865</v>
       </c>
       <c r="M3">
-        <v>1.063007288764676</v>
+        <v>1.071368281079545</v>
       </c>
       <c r="N3">
-        <v>1.051227421798851</v>
+        <v>1.055848209415514</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032741758316324</v>
+        <v>1.050244775106865</v>
       </c>
       <c r="D4">
-        <v>1.050212836647017</v>
+        <v>1.058152638480357</v>
       </c>
       <c r="E4">
-        <v>1.044376681303779</v>
+        <v>1.057719929134223</v>
       </c>
       <c r="F4">
-        <v>1.055511716683439</v>
+        <v>1.069422709596494</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06241344820952</v>
+        <v>1.048932560864472</v>
       </c>
       <c r="J4">
-        <v>1.051343454804063</v>
+        <v>1.054708438807389</v>
       </c>
       <c r="K4">
-        <v>1.059740776638655</v>
+        <v>1.060581842744047</v>
       </c>
       <c r="L4">
-        <v>1.053967469845254</v>
+        <v>1.060150179424004</v>
       </c>
       <c r="M4">
-        <v>1.064983330420856</v>
+        <v>1.071824989814458</v>
       </c>
       <c r="N4">
-        <v>1.052836483100664</v>
+        <v>1.056206245767244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033868424604471</v>
+        <v>1.050490900668912</v>
       </c>
       <c r="D5">
-        <v>1.051107077445493</v>
+        <v>1.058353399354572</v>
       </c>
       <c r="E5">
-        <v>1.045323753063812</v>
+        <v>1.057939499160407</v>
       </c>
       <c r="F5">
-        <v>1.05655320273994</v>
+        <v>1.069665337236336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062811489489466</v>
+        <v>1.04900308328974</v>
       </c>
       <c r="J5">
-        <v>1.052010906198753</v>
+        <v>1.054858710611272</v>
       </c>
       <c r="K5">
-        <v>1.060415327008989</v>
+        <v>1.060731546720789</v>
       </c>
       <c r="L5">
-        <v>1.054692607967645</v>
+        <v>1.060318624868923</v>
       </c>
       <c r="M5">
-        <v>1.065805120438051</v>
+        <v>1.072017060673677</v>
       </c>
       <c r="N5">
-        <v>1.053504882352893</v>
+        <v>1.056356730974326</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034056888030493</v>
+        <v>1.050532233497152</v>
       </c>
       <c r="D6">
-        <v>1.051256690946601</v>
+        <v>1.058387113799534</v>
       </c>
       <c r="E6">
-        <v>1.045482248388218</v>
+        <v>1.057976377557721</v>
       </c>
       <c r="F6">
-        <v>1.056727495914146</v>
+        <v>1.069706088554234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062877928446385</v>
+        <v>1.049014909178518</v>
       </c>
       <c r="J6">
-        <v>1.052122509352008</v>
+        <v>1.054883939926932</v>
       </c>
       <c r="K6">
-        <v>1.060528106577287</v>
+        <v>1.060756679115835</v>
       </c>
       <c r="L6">
-        <v>1.054813897042907</v>
+        <v>1.060346910036996</v>
       </c>
       <c r="M6">
-        <v>1.065942586072699</v>
+        <v>1.072049314309282</v>
       </c>
       <c r="N6">
-        <v>1.053616643995426</v>
+        <v>1.056381996118507</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032756860631067</v>
+        <v>1.050248063361052</v>
       </c>
       <c r="D7">
-        <v>1.050224821450201</v>
+        <v>1.058155320666528</v>
       </c>
       <c r="E7">
-        <v>1.044389371288831</v>
+        <v>1.057722862259675</v>
       </c>
       <c r="F7">
-        <v>1.055525671925149</v>
+        <v>1.069425950721973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062418793344429</v>
+        <v>1.048933504202332</v>
       </c>
       <c r="J7">
-        <v>1.051352404610005</v>
+        <v>1.054710446878569</v>
       </c>
       <c r="K7">
-        <v>1.059749822342123</v>
+        <v>1.060583843333711</v>
       </c>
       <c r="L7">
-        <v>1.05397719046456</v>
+        <v>1.060152430036129</v>
       </c>
       <c r="M7">
-        <v>1.064994345990942</v>
+        <v>1.071827555999419</v>
       </c>
       <c r="N7">
-        <v>1.052845445616358</v>
+        <v>1.056208256690116</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027217557399873</v>
+        <v>1.04906133892668</v>
       </c>
       <c r="D8">
-        <v>1.045832671349924</v>
+        <v>1.057187315074991</v>
       </c>
       <c r="E8">
-        <v>1.039743769772143</v>
+        <v>1.056664903042683</v>
       </c>
       <c r="F8">
-        <v>1.050416531496221</v>
+        <v>1.068256923461836</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060441628767112</v>
+        <v>1.048591058994543</v>
       </c>
       <c r="J8">
-        <v>1.0480646539224</v>
+        <v>1.053984995326663</v>
       </c>
       <c r="K8">
-        <v>1.056425636492202</v>
+        <v>1.059860910879378</v>
       </c>
       <c r="L8">
-        <v>1.050411009288537</v>
+        <v>1.059339896799512</v>
       </c>
       <c r="M8">
-        <v>1.060954286114541</v>
+        <v>1.07090124469521</v>
       </c>
       <c r="N8">
-        <v>1.049553025945666</v>
+        <v>1.055481774913796</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017030350671914</v>
+        <v>1.046974263232263</v>
       </c>
       <c r="D9">
-        <v>1.037775520165685</v>
+        <v>1.055484880686516</v>
       </c>
       <c r="E9">
-        <v>1.031245029812116</v>
+        <v>1.054807132716529</v>
       </c>
       <c r="F9">
-        <v>1.041067780832302</v>
+        <v>1.066204233283889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056728051269818</v>
+        <v>1.047979435321469</v>
       </c>
       <c r="J9">
-        <v>1.041995731578305</v>
+        <v>1.052705680359822</v>
       </c>
       <c r="K9">
-        <v>1.050284067612446</v>
+        <v>1.058585179472946</v>
       </c>
       <c r="L9">
-        <v>1.043850731549785</v>
+        <v>1.057909555544189</v>
       </c>
       <c r="M9">
-        <v>1.053527935783524</v>
+        <v>1.069271329924838</v>
       </c>
       <c r="N9">
-        <v>1.043475485035727</v>
+        <v>1.054200643172962</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.009923027229666</v>
+        <v>1.045585703723154</v>
       </c>
       <c r="D10">
-        <v>1.032170943174936</v>
+        <v>1.054352246896</v>
       </c>
       <c r="E10">
-        <v>1.025348624624034</v>
+        <v>1.053573077247953</v>
       </c>
       <c r="F10">
-        <v>1.034579921221894</v>
+        <v>1.064840771374093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054087138532864</v>
+        <v>1.047566221481049</v>
       </c>
       <c r="J10">
-        <v>1.037748401006993</v>
+        <v>1.051852214241733</v>
       </c>
       <c r="K10">
-        <v>1.045982659961374</v>
+        <v>1.05773353150653</v>
       </c>
       <c r="L10">
-        <v>1.03927480342062</v>
+        <v>1.056957042271201</v>
       </c>
       <c r="M10">
-        <v>1.048351685329384</v>
+        <v>1.068186394043908</v>
       </c>
       <c r="N10">
-        <v>1.039222122767828</v>
+        <v>1.053345965035092</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.006763525153687</v>
+        <v>1.044985128245637</v>
       </c>
       <c r="D11">
-        <v>1.029684109224359</v>
+        <v>1.053862374450024</v>
       </c>
       <c r="E11">
-        <v>1.022735841333994</v>
+        <v>1.053039795003069</v>
       </c>
       <c r="F11">
-        <v>1.031704564184609</v>
+        <v>1.064251583807707</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052901804354011</v>
+        <v>1.047386008078181</v>
       </c>
       <c r="J11">
-        <v>1.035857615556752</v>
+        <v>1.051482528212942</v>
       </c>
       <c r="K11">
-        <v>1.044067128601898</v>
+        <v>1.057364498251745</v>
       </c>
       <c r="L11">
-        <v>1.037241362961013</v>
+        <v>1.056544857743757</v>
       </c>
       <c r="M11">
-        <v>1.046052362549343</v>
+        <v>1.067717019571943</v>
       </c>
       <c r="N11">
-        <v>1.037328652185372</v>
+        <v>1.052975754009736</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005576984396308</v>
+        <v>1.044762151204056</v>
       </c>
       <c r="D12">
-        <v>1.028750943866277</v>
+        <v>1.053680500537419</v>
       </c>
       <c r="E12">
-        <v>1.021755937589816</v>
+        <v>1.05284187288247</v>
       </c>
       <c r="F12">
-        <v>1.030626102988372</v>
+        <v>1.064032915347019</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052454999715211</v>
+        <v>1.047318875816605</v>
       </c>
       <c r="J12">
-        <v>1.035147177377568</v>
+        <v>1.051345192006257</v>
       </c>
       <c r="K12">
-        <v>1.043347299831129</v>
+        <v>1.057227384380065</v>
       </c>
       <c r="L12">
-        <v>1.036477869669857</v>
+        <v>1.056391794376677</v>
       </c>
       <c r="M12">
-        <v>1.045189171456043</v>
+        <v>1.067542735992056</v>
       </c>
       <c r="N12">
-        <v>1.036617205102485</v>
+        <v>1.052838222769884</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.005832098730258</v>
+        <v>1.044809975835366</v>
       </c>
       <c r="D13">
-        <v>1.028951545551395</v>
+        <v>1.053719509168376</v>
       </c>
       <c r="E13">
-        <v>1.021966563080965</v>
+        <v>1.05288432046318</v>
       </c>
       <c r="F13">
-        <v>1.030857916711957</v>
+        <v>1.064079812209631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052551139811933</v>
+        <v>1.04733328463623</v>
       </c>
       <c r="J13">
-        <v>1.035299941997214</v>
+        <v>1.05137465190156</v>
       </c>
       <c r="K13">
-        <v>1.043502087745159</v>
+        <v>1.057256797493715</v>
       </c>
       <c r="L13">
-        <v>1.03664201799212</v>
+        <v>1.056424625143811</v>
       </c>
       <c r="M13">
-        <v>1.045374748461928</v>
+        <v>1.067580117538103</v>
       </c>
       <c r="N13">
-        <v>1.036770186665413</v>
+        <v>1.052867724501618</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.006665713596134</v>
+        <v>1.044966694776454</v>
       </c>
       <c r="D14">
-        <v>1.029607168717783</v>
+        <v>1.053847338921491</v>
       </c>
       <c r="E14">
-        <v>1.022655036608188</v>
+        <v>1.053023431371546</v>
       </c>
       <c r="F14">
-        <v>1.031615633919688</v>
+        <v>1.064233504881337</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052865005756553</v>
+        <v>1.047380462837222</v>
       </c>
       <c r="J14">
-        <v>1.035799058213801</v>
+        <v>1.051471176327267</v>
       </c>
       <c r="K14">
-        <v>1.044007799079901</v>
+        <v>1.057353165154667</v>
       </c>
       <c r="L14">
-        <v>1.037178421492119</v>
+        <v>1.056532204648323</v>
       </c>
       <c r="M14">
-        <v>1.045981199419042</v>
+        <v>1.067702611943556</v>
       </c>
       <c r="N14">
-        <v>1.037270011684277</v>
+        <v>1.052964386003082</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007177593803269</v>
+        <v>1.045063268232351</v>
       </c>
       <c r="D15">
-        <v>1.030009855053559</v>
+        <v>1.053926110563754</v>
       </c>
       <c r="E15">
-        <v>1.023077968534268</v>
+        <v>1.053109163794115</v>
       </c>
       <c r="F15">
-        <v>1.032081091557878</v>
+        <v>1.06432822418063</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053057517735591</v>
+        <v>1.047409505332935</v>
       </c>
       <c r="J15">
-        <v>1.036105493720871</v>
+        <v>1.051530645812645</v>
       </c>
       <c r="K15">
-        <v>1.044318271739356</v>
+        <v>1.057412535386273</v>
       </c>
       <c r="L15">
-        <v>1.037507821748786</v>
+        <v>1.056598493311858</v>
       </c>
       <c r="M15">
-        <v>1.046353632635663</v>
+        <v>1.067778093179648</v>
       </c>
       <c r="N15">
-        <v>1.037576882364916</v>
+        <v>1.053023939941949</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010130931655551</v>
+        <v>1.045625576374307</v>
       </c>
       <c r="D16">
-        <v>1.032334685778099</v>
+        <v>1.054384770164621</v>
       </c>
       <c r="E16">
-        <v>1.0255207333328</v>
+        <v>1.053608492155384</v>
       </c>
       <c r="F16">
-        <v>1.034769315251327</v>
+        <v>1.064879899247912</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054164904529448</v>
+        <v>1.047578154550461</v>
       </c>
       <c r="J16">
-        <v>1.037872767976473</v>
+        <v>1.051876746450877</v>
       </c>
       <c r="K16">
-        <v>1.046108641289273</v>
+        <v>1.057758017565691</v>
       </c>
       <c r="L16">
-        <v>1.039408629199738</v>
+        <v>1.056984403186007</v>
       </c>
       <c r="M16">
-        <v>1.048503027936342</v>
+        <v>1.068217553638855</v>
       </c>
       <c r="N16">
-        <v>1.03934666635267</v>
+        <v>1.053370532082787</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.01196109139631</v>
+        <v>1.045978480358041</v>
       </c>
       <c r="D17">
-        <v>1.033776629024793</v>
+        <v>1.054672627713765</v>
       </c>
       <c r="E17">
-        <v>1.027036752418047</v>
+        <v>1.053921995760788</v>
       </c>
       <c r="F17">
-        <v>1.03643753504726</v>
+        <v>1.065226273021703</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054848183835778</v>
+        <v>1.04768359911149</v>
       </c>
       <c r="J17">
-        <v>1.038967257410562</v>
+        <v>1.052093812332209</v>
       </c>
       <c r="K17">
-        <v>1.047217262294631</v>
+        <v>1.057974659546516</v>
       </c>
       <c r="L17">
-        <v>1.040586773708726</v>
+        <v>1.057226544751802</v>
       </c>
       <c r="M17">
-        <v>1.049835484100331</v>
+        <v>1.068493326318993</v>
       </c>
       <c r="N17">
-        <v>1.040442710087295</v>
+        <v>1.053587906222568</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013020727961109</v>
+        <v>1.046184388800887</v>
       </c>
       <c r="D18">
-        <v>1.034611929797364</v>
+        <v>1.054840584605309</v>
       </c>
       <c r="E18">
-        <v>1.027915301566101</v>
+        <v>1.054104960426462</v>
       </c>
       <c r="F18">
-        <v>1.037404239834145</v>
+        <v>1.065428422695759</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055242712745043</v>
+        <v>1.047744978715699</v>
       </c>
       <c r="J18">
-        <v>1.0396006949165</v>
+        <v>1.052220410612372</v>
       </c>
       <c r="K18">
-        <v>1.047858814086906</v>
+        <v>1.05810099759077</v>
       </c>
       <c r="L18">
-        <v>1.041268970867005</v>
+        <v>1.0573678068329</v>
       </c>
       <c r="M18">
-        <v>1.050607118809668</v>
+        <v>1.068654219314636</v>
       </c>
       <c r="N18">
-        <v>1.041077047147148</v>
+        <v>1.05371468428681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013380721538638</v>
+        <v>1.04625460933328</v>
       </c>
       <c r="D19">
-        <v>1.034895781287165</v>
+        <v>1.054897862753336</v>
       </c>
       <c r="E19">
-        <v>1.028213907133672</v>
+        <v>1.054167364124662</v>
       </c>
       <c r="F19">
-        <v>1.037732800534855</v>
+        <v>1.065497370086168</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055376562662549</v>
+        <v>1.04776588644906</v>
       </c>
       <c r="J19">
-        <v>1.039815849890748</v>
+        <v>1.052263575187442</v>
       </c>
       <c r="K19">
-        <v>1.048076714014293</v>
+        <v>1.058144071227953</v>
       </c>
       <c r="L19">
-        <v>1.041500746025799</v>
+        <v>1.057415977754667</v>
       </c>
       <c r="M19">
-        <v>1.050869294533066</v>
+        <v>1.068709086317969</v>
       </c>
       <c r="N19">
-        <v>1.041292507666138</v>
+        <v>1.053757910160527</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011765550574464</v>
+        <v>1.045940610314184</v>
       </c>
       <c r="D20">
-        <v>1.033622520987296</v>
+        <v>1.054641737679284</v>
       </c>
       <c r="E20">
-        <v>1.026874692606046</v>
+        <v>1.053888349092762</v>
       </c>
       <c r="F20">
-        <v>1.036259210094766</v>
+        <v>1.065189098413032</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054775291538759</v>
+        <v>1.047672298772804</v>
       </c>
       <c r="J20">
-        <v>1.038850344544374</v>
+        <v>1.052070524510193</v>
       </c>
       <c r="K20">
-        <v>1.047098846521279</v>
+        <v>1.057951418547271</v>
       </c>
       <c r="L20">
-        <v>1.040460889137139</v>
+        <v>1.057200562658196</v>
       </c>
       <c r="M20">
-        <v>1.049693102605262</v>
+        <v>1.068463734428876</v>
       </c>
       <c r="N20">
-        <v>1.040325631191427</v>
+        <v>1.053564585329173</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006420597964594</v>
+        <v>1.044920542088938</v>
       </c>
       <c r="D21">
-        <v>1.029414368321215</v>
+        <v>1.05380969384413</v>
       </c>
       <c r="E21">
-        <v>1.022452561507364</v>
+        <v>1.052982462173459</v>
       </c>
       <c r="F21">
-        <v>1.031392797049164</v>
+        <v>1.064188241181634</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052772762000346</v>
+        <v>1.047366575354546</v>
       </c>
       <c r="J21">
-        <v>1.035652307937137</v>
+        <v>1.051442752787475</v>
       </c>
       <c r="K21">
-        <v>1.043859112185802</v>
+        <v>1.057324788333415</v>
       </c>
       <c r="L21">
-        <v>1.037020692972177</v>
+        <v>1.056500524042503</v>
       </c>
       <c r="M21">
-        <v>1.045802869917491</v>
+        <v>1.067666538643854</v>
       </c>
       <c r="N21">
-        <v>1.037123053005388</v>
+        <v>1.052935922098603</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002984675680348</v>
+        <v>1.044279783766466</v>
       </c>
       <c r="D22">
-        <v>1.026713661099843</v>
+        <v>1.053287056248101</v>
       </c>
       <c r="E22">
-        <v>1.019617567391209</v>
+        <v>1.052413836947801</v>
       </c>
       <c r="F22">
-        <v>1.028272500692365</v>
+        <v>1.063560016548426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051475847333856</v>
+        <v>1.04717323872951</v>
       </c>
       <c r="J22">
-        <v>1.033594424869448</v>
+        <v>1.051047942141761</v>
       </c>
       <c r="K22">
-        <v>1.041773862219077</v>
+        <v>1.056930578944283</v>
       </c>
       <c r="L22">
-        <v>1.034810162904048</v>
+        <v>1.056060615875532</v>
       </c>
       <c r="M22">
-        <v>1.043303936948866</v>
+        <v>1.0671656751989</v>
       </c>
       <c r="N22">
-        <v>1.0350622475077</v>
+        <v>1.052540550776486</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.004813490439404</v>
+        <v>1.044619404665774</v>
       </c>
       <c r="D23">
-        <v>1.028150708516496</v>
+        <v>1.053564068276096</v>
       </c>
       <c r="E23">
-        <v>1.021125785242153</v>
+        <v>1.05271518612731</v>
       </c>
       <c r="F23">
-        <v>1.029932546900621</v>
+        <v>1.063892949840767</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052167037275533</v>
+        <v>1.04727583570211</v>
       </c>
       <c r="J23">
-        <v>1.034689941280244</v>
+        <v>1.051257248378056</v>
       </c>
       <c r="K23">
-        <v>1.042883994948159</v>
+        <v>1.057139577457594</v>
       </c>
       <c r="L23">
-        <v>1.035986641327383</v>
+        <v>1.056293796928033</v>
       </c>
       <c r="M23">
-        <v>1.044633835286309</v>
+        <v>1.067431157300825</v>
       </c>
       <c r="N23">
-        <v>1.036159319677457</v>
+        <v>1.052750154251644</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011853931312306</v>
+        <v>1.045957721954583</v>
       </c>
       <c r="D24">
-        <v>1.033692173546327</v>
+        <v>1.05465569538815</v>
       </c>
       <c r="E24">
-        <v>1.026947938101175</v>
+        <v>1.053903552254696</v>
       </c>
       <c r="F24">
-        <v>1.036339807020262</v>
+        <v>1.065205895661191</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054808240824563</v>
+        <v>1.047677405293957</v>
       </c>
       <c r="J24">
-        <v>1.038903187737382</v>
+        <v>1.052081047313525</v>
       </c>
       <c r="K24">
-        <v>1.04715236921029</v>
+        <v>1.057961920233531</v>
       </c>
       <c r="L24">
-        <v>1.040517786364872</v>
+        <v>1.057212302770796</v>
       </c>
       <c r="M24">
-        <v>1.049757455840316</v>
+        <v>1.068477105608494</v>
       </c>
       <c r="N24">
-        <v>1.040378549427831</v>
+        <v>1.053575123076093</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019717405363717</v>
+        <v>1.047513330264959</v>
       </c>
       <c r="D25">
-        <v>1.039898074399395</v>
+        <v>1.055924598279544</v>
       </c>
       <c r="E25">
-        <v>1.03348123115251</v>
+        <v>1.055286632082135</v>
       </c>
       <c r="F25">
-        <v>1.043527908847275</v>
+        <v>1.066734029255496</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057716381403024</v>
+        <v>1.048138521034439</v>
       </c>
       <c r="J25">
-        <v>1.043598945151994</v>
+        <v>1.053036522763986</v>
       </c>
       <c r="K25">
-        <v>1.051907059879415</v>
+        <v>1.058915196373465</v>
       </c>
       <c r="L25">
-        <v>1.045581112567088</v>
+        <v>1.058279153916614</v>
       </c>
       <c r="M25">
-        <v>1.055486101727909</v>
+        <v>1.069692413101446</v>
       </c>
       <c r="N25">
-        <v>1.045080975356581</v>
+        <v>1.054531955411288</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04875610185102</v>
+        <v>1.025763602525652</v>
       </c>
       <c r="D2">
-        <v>1.056938332385505</v>
+        <v>1.044681078060737</v>
       </c>
       <c r="E2">
-        <v>1.05639297797345</v>
+        <v>1.038527297463737</v>
       </c>
       <c r="F2">
-        <v>1.067956458803336</v>
+        <v>1.049078558090961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048502342011862</v>
+        <v>1.059917422393819</v>
       </c>
       <c r="J2">
-        <v>1.053798165644134</v>
+        <v>1.047200117521649</v>
       </c>
       <c r="K2">
-        <v>1.059674671496669</v>
+        <v>1.055551146211219</v>
       </c>
       <c r="L2">
-        <v>1.059130812873581</v>
+        <v>1.049474763513645</v>
       </c>
       <c r="M2">
-        <v>1.070662931607358</v>
+        <v>1.059894010415145</v>
       </c>
       <c r="N2">
-        <v>1.055294679911688</v>
+        <v>1.048687261804062</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049659615628725</v>
+        <v>1.030032542074037</v>
       </c>
       <c r="D3">
-        <v>1.057675328773298</v>
+        <v>1.048063756317489</v>
       </c>
       <c r="E3">
-        <v>1.05719811417175</v>
+        <v>1.042102376135824</v>
       </c>
       <c r="F3">
-        <v>1.068846106531008</v>
+        <v>1.053010569107575</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048764196934572</v>
+        <v>1.061450476489333</v>
       </c>
       <c r="J3">
-        <v>1.054350910187309</v>
+        <v>1.049736675313427</v>
       </c>
       <c r="K3">
-        <v>1.060225600802422</v>
+        <v>1.058116481104314</v>
       </c>
       <c r="L3">
-        <v>1.059749600776865</v>
+        <v>1.052223464963931</v>
       </c>
       <c r="M3">
-        <v>1.071368281079545</v>
+        <v>1.063007288764676</v>
       </c>
       <c r="N3">
-        <v>1.055848209415514</v>
+        <v>1.051227421798851</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050244775106865</v>
+        <v>1.032741758316323</v>
       </c>
       <c r="D4">
-        <v>1.058152638480357</v>
+        <v>1.050212836647016</v>
       </c>
       <c r="E4">
-        <v>1.057719929134223</v>
+        <v>1.044376681303778</v>
       </c>
       <c r="F4">
-        <v>1.069422709596494</v>
+        <v>1.055511716683438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048932560864472</v>
+        <v>1.062413448209519</v>
       </c>
       <c r="J4">
-        <v>1.054708438807389</v>
+        <v>1.051343454804062</v>
       </c>
       <c r="K4">
-        <v>1.060581842744047</v>
+        <v>1.059740776638654</v>
       </c>
       <c r="L4">
-        <v>1.060150179424004</v>
+        <v>1.053967469845253</v>
       </c>
       <c r="M4">
-        <v>1.071824989814458</v>
+        <v>1.064983330420854</v>
       </c>
       <c r="N4">
-        <v>1.056206245767244</v>
+        <v>1.052836483100664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050490900668912</v>
+        <v>1.033868424604471</v>
       </c>
       <c r="D5">
-        <v>1.058353399354572</v>
+        <v>1.051107077445493</v>
       </c>
       <c r="E5">
-        <v>1.057939499160407</v>
+        <v>1.045323753063812</v>
       </c>
       <c r="F5">
-        <v>1.069665337236336</v>
+        <v>1.05655320273994</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04900308328974</v>
+        <v>1.062811489489466</v>
       </c>
       <c r="J5">
-        <v>1.054858710611272</v>
+        <v>1.052010906198752</v>
       </c>
       <c r="K5">
-        <v>1.060731546720789</v>
+        <v>1.060415327008988</v>
       </c>
       <c r="L5">
-        <v>1.060318624868923</v>
+        <v>1.054692607967644</v>
       </c>
       <c r="M5">
-        <v>1.072017060673677</v>
+        <v>1.06580512043805</v>
       </c>
       <c r="N5">
-        <v>1.056356730974326</v>
+        <v>1.053504882352892</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050532233497152</v>
+        <v>1.034056888030493</v>
       </c>
       <c r="D6">
-        <v>1.058387113799534</v>
+        <v>1.051256690946601</v>
       </c>
       <c r="E6">
-        <v>1.057976377557721</v>
+        <v>1.045482248388217</v>
       </c>
       <c r="F6">
-        <v>1.069706088554234</v>
+        <v>1.056727495914146</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049014909178518</v>
+        <v>1.062877928446385</v>
       </c>
       <c r="J6">
-        <v>1.054883939926932</v>
+        <v>1.052122509352008</v>
       </c>
       <c r="K6">
-        <v>1.060756679115835</v>
+        <v>1.060528106577286</v>
       </c>
       <c r="L6">
-        <v>1.060346910036996</v>
+        <v>1.054813897042907</v>
       </c>
       <c r="M6">
-        <v>1.072049314309282</v>
+        <v>1.065942586072699</v>
       </c>
       <c r="N6">
-        <v>1.056381996118507</v>
+        <v>1.053616643995427</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050248063361052</v>
+        <v>1.032756860631066</v>
       </c>
       <c r="D7">
-        <v>1.058155320666528</v>
+        <v>1.0502248214502</v>
       </c>
       <c r="E7">
-        <v>1.057722862259675</v>
+        <v>1.044389371288831</v>
       </c>
       <c r="F7">
-        <v>1.069425950721973</v>
+        <v>1.055525671925149</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048933504202332</v>
+        <v>1.062418793344428</v>
       </c>
       <c r="J7">
-        <v>1.054710446878569</v>
+        <v>1.051352404610004</v>
       </c>
       <c r="K7">
-        <v>1.060583843333711</v>
+        <v>1.059749822342123</v>
       </c>
       <c r="L7">
-        <v>1.060152430036129</v>
+        <v>1.053977190464559</v>
       </c>
       <c r="M7">
-        <v>1.071827555999419</v>
+        <v>1.064994345990942</v>
       </c>
       <c r="N7">
-        <v>1.056208256690116</v>
+        <v>1.052845445616357</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04906133892668</v>
+        <v>1.027217557399873</v>
       </c>
       <c r="D8">
-        <v>1.057187315074991</v>
+        <v>1.045832671349923</v>
       </c>
       <c r="E8">
-        <v>1.056664903042683</v>
+        <v>1.039743769772142</v>
       </c>
       <c r="F8">
-        <v>1.068256923461836</v>
+        <v>1.05041653149622</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048591058994543</v>
+        <v>1.060441628767112</v>
       </c>
       <c r="J8">
-        <v>1.053984995326663</v>
+        <v>1.048064653922399</v>
       </c>
       <c r="K8">
-        <v>1.059860910879378</v>
+        <v>1.056425636492202</v>
       </c>
       <c r="L8">
-        <v>1.059339896799512</v>
+        <v>1.050411009288537</v>
       </c>
       <c r="M8">
-        <v>1.07090124469521</v>
+        <v>1.06095428611454</v>
       </c>
       <c r="N8">
-        <v>1.055481774913796</v>
+        <v>1.049553025945665</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046974263232263</v>
+        <v>1.017030350671914</v>
       </c>
       <c r="D9">
-        <v>1.055484880686516</v>
+        <v>1.037775520165685</v>
       </c>
       <c r="E9">
-        <v>1.054807132716529</v>
+        <v>1.031245029812115</v>
       </c>
       <c r="F9">
-        <v>1.066204233283889</v>
+        <v>1.041067780832302</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047979435321469</v>
+        <v>1.056728051269818</v>
       </c>
       <c r="J9">
-        <v>1.052705680359822</v>
+        <v>1.041995731578305</v>
       </c>
       <c r="K9">
-        <v>1.058585179472946</v>
+        <v>1.050284067612445</v>
       </c>
       <c r="L9">
-        <v>1.057909555544189</v>
+        <v>1.043850731549784</v>
       </c>
       <c r="M9">
-        <v>1.069271329924838</v>
+        <v>1.053527935783523</v>
       </c>
       <c r="N9">
-        <v>1.054200643172962</v>
+        <v>1.043475485035727</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045585703723154</v>
+        <v>1.009923027229666</v>
       </c>
       <c r="D10">
-        <v>1.054352246896</v>
+        <v>1.032170943174936</v>
       </c>
       <c r="E10">
-        <v>1.053573077247953</v>
+        <v>1.025348624624033</v>
       </c>
       <c r="F10">
-        <v>1.064840771374093</v>
+        <v>1.034579921221894</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047566221481049</v>
+        <v>1.054087138532864</v>
       </c>
       <c r="J10">
-        <v>1.051852214241733</v>
+        <v>1.037748401006992</v>
       </c>
       <c r="K10">
-        <v>1.05773353150653</v>
+        <v>1.045982659961374</v>
       </c>
       <c r="L10">
-        <v>1.056957042271201</v>
+        <v>1.03927480342062</v>
       </c>
       <c r="M10">
-        <v>1.068186394043908</v>
+        <v>1.048351685329384</v>
       </c>
       <c r="N10">
-        <v>1.053345965035092</v>
+        <v>1.039222122767828</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044985128245637</v>
+        <v>1.006763525153687</v>
       </c>
       <c r="D11">
-        <v>1.053862374450024</v>
+        <v>1.029684109224359</v>
       </c>
       <c r="E11">
-        <v>1.053039795003069</v>
+        <v>1.022735841333994</v>
       </c>
       <c r="F11">
-        <v>1.064251583807707</v>
+        <v>1.031704564184609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047386008078181</v>
+        <v>1.052901804354011</v>
       </c>
       <c r="J11">
-        <v>1.051482528212942</v>
+        <v>1.035857615556752</v>
       </c>
       <c r="K11">
-        <v>1.057364498251745</v>
+        <v>1.044067128601898</v>
       </c>
       <c r="L11">
-        <v>1.056544857743757</v>
+        <v>1.037241362961013</v>
       </c>
       <c r="M11">
-        <v>1.067717019571943</v>
+        <v>1.046052362549343</v>
       </c>
       <c r="N11">
-        <v>1.052975754009736</v>
+        <v>1.037328652185371</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044762151204056</v>
+        <v>1.005576984396307</v>
       </c>
       <c r="D12">
-        <v>1.053680500537419</v>
+        <v>1.028750943866277</v>
       </c>
       <c r="E12">
-        <v>1.05284187288247</v>
+        <v>1.021755937589816</v>
       </c>
       <c r="F12">
-        <v>1.064032915347019</v>
+        <v>1.030626102988372</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047318875816605</v>
+        <v>1.05245499971521</v>
       </c>
       <c r="J12">
-        <v>1.051345192006257</v>
+        <v>1.035147177377568</v>
       </c>
       <c r="K12">
-        <v>1.057227384380065</v>
+        <v>1.043347299831129</v>
       </c>
       <c r="L12">
-        <v>1.056391794376677</v>
+        <v>1.036477869669857</v>
       </c>
       <c r="M12">
-        <v>1.067542735992056</v>
+        <v>1.045189171456043</v>
       </c>
       <c r="N12">
-        <v>1.052838222769884</v>
+        <v>1.036617205102485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044809975835366</v>
+        <v>1.005832098730257</v>
       </c>
       <c r="D13">
-        <v>1.053719509168376</v>
+        <v>1.028951545551395</v>
       </c>
       <c r="E13">
-        <v>1.05288432046318</v>
+        <v>1.021966563080965</v>
       </c>
       <c r="F13">
-        <v>1.064079812209631</v>
+        <v>1.030857916711956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04733328463623</v>
+        <v>1.052551139811933</v>
       </c>
       <c r="J13">
-        <v>1.05137465190156</v>
+        <v>1.035299941997213</v>
       </c>
       <c r="K13">
-        <v>1.057256797493715</v>
+        <v>1.043502087745158</v>
       </c>
       <c r="L13">
-        <v>1.056424625143811</v>
+        <v>1.03664201799212</v>
       </c>
       <c r="M13">
-        <v>1.067580117538103</v>
+        <v>1.045374748461927</v>
       </c>
       <c r="N13">
-        <v>1.052867724501618</v>
+        <v>1.036770186665412</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044966694776454</v>
+        <v>1.006665713596132</v>
       </c>
       <c r="D14">
-        <v>1.053847338921491</v>
+        <v>1.029607168717783</v>
       </c>
       <c r="E14">
-        <v>1.053023431371546</v>
+        <v>1.022655036608187</v>
       </c>
       <c r="F14">
-        <v>1.064233504881337</v>
+        <v>1.031615633919687</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047380462837222</v>
+        <v>1.052865005756552</v>
       </c>
       <c r="J14">
-        <v>1.051471176327267</v>
+        <v>1.0357990582138</v>
       </c>
       <c r="K14">
-        <v>1.057353165154667</v>
+        <v>1.0440077990799</v>
       </c>
       <c r="L14">
-        <v>1.056532204648323</v>
+        <v>1.037178421492118</v>
       </c>
       <c r="M14">
-        <v>1.067702611943556</v>
+        <v>1.045981199419041</v>
       </c>
       <c r="N14">
-        <v>1.052964386003082</v>
+        <v>1.037270011684276</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045063268232351</v>
+        <v>1.007177593803268</v>
       </c>
       <c r="D15">
-        <v>1.053926110563754</v>
+        <v>1.030009855053559</v>
       </c>
       <c r="E15">
-        <v>1.053109163794115</v>
+        <v>1.023077968534268</v>
       </c>
       <c r="F15">
-        <v>1.06432822418063</v>
+        <v>1.032081091557878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047409505332935</v>
+        <v>1.053057517735591</v>
       </c>
       <c r="J15">
-        <v>1.051530645812645</v>
+        <v>1.03610549372087</v>
       </c>
       <c r="K15">
-        <v>1.057412535386273</v>
+        <v>1.044318271739355</v>
       </c>
       <c r="L15">
-        <v>1.056598493311858</v>
+        <v>1.037507821748786</v>
       </c>
       <c r="M15">
-        <v>1.067778093179648</v>
+        <v>1.046353632635663</v>
       </c>
       <c r="N15">
-        <v>1.053023939941949</v>
+        <v>1.037576882364915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045625576374307</v>
+        <v>1.010130931655551</v>
       </c>
       <c r="D16">
-        <v>1.054384770164621</v>
+        <v>1.032334685778099</v>
       </c>
       <c r="E16">
-        <v>1.053608492155384</v>
+        <v>1.0255207333328</v>
       </c>
       <c r="F16">
-        <v>1.064879899247912</v>
+        <v>1.034769315251327</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047578154550461</v>
+        <v>1.054164904529448</v>
       </c>
       <c r="J16">
-        <v>1.051876746450877</v>
+        <v>1.037872767976473</v>
       </c>
       <c r="K16">
-        <v>1.057758017565691</v>
+        <v>1.046108641289273</v>
       </c>
       <c r="L16">
-        <v>1.056984403186007</v>
+        <v>1.039408629199737</v>
       </c>
       <c r="M16">
-        <v>1.068217553638855</v>
+        <v>1.048503027936341</v>
       </c>
       <c r="N16">
-        <v>1.053370532082787</v>
+        <v>1.03934666635267</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045978480358041</v>
+        <v>1.01196109139631</v>
       </c>
       <c r="D17">
-        <v>1.054672627713765</v>
+        <v>1.033776629024793</v>
       </c>
       <c r="E17">
-        <v>1.053921995760788</v>
+        <v>1.027036752418047</v>
       </c>
       <c r="F17">
-        <v>1.065226273021703</v>
+        <v>1.03643753504726</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04768359911149</v>
+        <v>1.054848183835778</v>
       </c>
       <c r="J17">
-        <v>1.052093812332209</v>
+        <v>1.038967257410562</v>
       </c>
       <c r="K17">
-        <v>1.057974659546516</v>
+        <v>1.047217262294631</v>
       </c>
       <c r="L17">
-        <v>1.057226544751802</v>
+        <v>1.040586773708725</v>
       </c>
       <c r="M17">
-        <v>1.068493326318993</v>
+        <v>1.049835484100331</v>
       </c>
       <c r="N17">
-        <v>1.053587906222568</v>
+        <v>1.040442710087295</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046184388800887</v>
+        <v>1.01302072796111</v>
       </c>
       <c r="D18">
-        <v>1.054840584605309</v>
+        <v>1.034611929797365</v>
       </c>
       <c r="E18">
-        <v>1.054104960426462</v>
+        <v>1.027915301566102</v>
       </c>
       <c r="F18">
-        <v>1.065428422695759</v>
+        <v>1.037404239834146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047744978715699</v>
+        <v>1.055242712745044</v>
       </c>
       <c r="J18">
-        <v>1.052220410612372</v>
+        <v>1.039600694916501</v>
       </c>
       <c r="K18">
-        <v>1.05810099759077</v>
+        <v>1.047858814086907</v>
       </c>
       <c r="L18">
-        <v>1.0573678068329</v>
+        <v>1.041268970867005</v>
       </c>
       <c r="M18">
-        <v>1.068654219314636</v>
+        <v>1.050607118809669</v>
       </c>
       <c r="N18">
-        <v>1.05371468428681</v>
+        <v>1.041077047147149</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04625460933328</v>
+        <v>1.013380721538639</v>
       </c>
       <c r="D19">
-        <v>1.054897862753336</v>
+        <v>1.034895781287166</v>
       </c>
       <c r="E19">
-        <v>1.054167364124662</v>
+        <v>1.028213907133672</v>
       </c>
       <c r="F19">
-        <v>1.065497370086168</v>
+        <v>1.037732800534856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04776588644906</v>
+        <v>1.05537656266255</v>
       </c>
       <c r="J19">
-        <v>1.052263575187442</v>
+        <v>1.039815849890749</v>
       </c>
       <c r="K19">
-        <v>1.058144071227953</v>
+        <v>1.048076714014293</v>
       </c>
       <c r="L19">
-        <v>1.057415977754667</v>
+        <v>1.041500746025799</v>
       </c>
       <c r="M19">
-        <v>1.068709086317969</v>
+        <v>1.050869294533066</v>
       </c>
       <c r="N19">
-        <v>1.053757910160527</v>
+        <v>1.041292507666139</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045940610314184</v>
+        <v>1.011765550574464</v>
       </c>
       <c r="D20">
-        <v>1.054641737679284</v>
+        <v>1.033622520987296</v>
       </c>
       <c r="E20">
-        <v>1.053888349092762</v>
+        <v>1.026874692606046</v>
       </c>
       <c r="F20">
-        <v>1.065189098413032</v>
+        <v>1.036259210094766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047672298772804</v>
+        <v>1.054775291538758</v>
       </c>
       <c r="J20">
-        <v>1.052070524510193</v>
+        <v>1.038850344544374</v>
       </c>
       <c r="K20">
-        <v>1.057951418547271</v>
+        <v>1.047098846521279</v>
       </c>
       <c r="L20">
-        <v>1.057200562658196</v>
+        <v>1.040460889137138</v>
       </c>
       <c r="M20">
-        <v>1.068463734428876</v>
+        <v>1.049693102605261</v>
       </c>
       <c r="N20">
-        <v>1.053564585329173</v>
+        <v>1.040325631191427</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044920542088938</v>
+        <v>1.006420597964595</v>
       </c>
       <c r="D21">
-        <v>1.05380969384413</v>
+        <v>1.029414368321216</v>
       </c>
       <c r="E21">
-        <v>1.052982462173459</v>
+        <v>1.022452561507366</v>
       </c>
       <c r="F21">
-        <v>1.064188241181634</v>
+        <v>1.031392797049165</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047366575354546</v>
+        <v>1.052772762000347</v>
       </c>
       <c r="J21">
-        <v>1.051442752787475</v>
+        <v>1.035652307937139</v>
       </c>
       <c r="K21">
-        <v>1.057324788333415</v>
+        <v>1.043859112185803</v>
       </c>
       <c r="L21">
-        <v>1.056500524042503</v>
+        <v>1.037020692972178</v>
       </c>
       <c r="M21">
-        <v>1.067666538643854</v>
+        <v>1.045802869917492</v>
       </c>
       <c r="N21">
-        <v>1.052935922098603</v>
+        <v>1.037123053005389</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044279783766466</v>
+        <v>1.002984675680348</v>
       </c>
       <c r="D22">
-        <v>1.053287056248101</v>
+        <v>1.026713661099843</v>
       </c>
       <c r="E22">
-        <v>1.052413836947801</v>
+        <v>1.019617567391209</v>
       </c>
       <c r="F22">
-        <v>1.063560016548426</v>
+        <v>1.028272500692365</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04717323872951</v>
+        <v>1.051475847333856</v>
       </c>
       <c r="J22">
-        <v>1.051047942141761</v>
+        <v>1.033594424869448</v>
       </c>
       <c r="K22">
-        <v>1.056930578944283</v>
+        <v>1.041773862219077</v>
       </c>
       <c r="L22">
-        <v>1.056060615875532</v>
+        <v>1.034810162904048</v>
       </c>
       <c r="M22">
-        <v>1.0671656751989</v>
+        <v>1.043303936948866</v>
       </c>
       <c r="N22">
-        <v>1.052540550776486</v>
+        <v>1.0350622475077</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044619404665774</v>
+        <v>1.004813490439404</v>
       </c>
       <c r="D23">
-        <v>1.053564068276096</v>
+        <v>1.028150708516496</v>
       </c>
       <c r="E23">
-        <v>1.05271518612731</v>
+        <v>1.021125785242153</v>
       </c>
       <c r="F23">
-        <v>1.063892949840767</v>
+        <v>1.029932546900621</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04727583570211</v>
+        <v>1.052167037275533</v>
       </c>
       <c r="J23">
-        <v>1.051257248378056</v>
+        <v>1.034689941280244</v>
       </c>
       <c r="K23">
-        <v>1.057139577457594</v>
+        <v>1.042883994948159</v>
       </c>
       <c r="L23">
-        <v>1.056293796928033</v>
+        <v>1.035986641327383</v>
       </c>
       <c r="M23">
-        <v>1.067431157300825</v>
+        <v>1.044633835286309</v>
       </c>
       <c r="N23">
-        <v>1.052750154251644</v>
+        <v>1.036159319677457</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045957721954583</v>
+        <v>1.011853931312306</v>
       </c>
       <c r="D24">
-        <v>1.05465569538815</v>
+        <v>1.033692173546326</v>
       </c>
       <c r="E24">
-        <v>1.053903552254696</v>
+        <v>1.026947938101175</v>
       </c>
       <c r="F24">
-        <v>1.065205895661191</v>
+        <v>1.036339807020261</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047677405293957</v>
+        <v>1.054808240824563</v>
       </c>
       <c r="J24">
-        <v>1.052081047313525</v>
+        <v>1.038903187737382</v>
       </c>
       <c r="K24">
-        <v>1.057961920233531</v>
+        <v>1.04715236921029</v>
       </c>
       <c r="L24">
-        <v>1.057212302770796</v>
+        <v>1.040517786364871</v>
       </c>
       <c r="M24">
-        <v>1.068477105608494</v>
+        <v>1.049757455840316</v>
       </c>
       <c r="N24">
-        <v>1.053575123076093</v>
+        <v>1.04037854942783</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047513330264959</v>
+        <v>1.019717405363717</v>
       </c>
       <c r="D25">
-        <v>1.055924598279544</v>
+        <v>1.039898074399396</v>
       </c>
       <c r="E25">
-        <v>1.055286632082135</v>
+        <v>1.03348123115251</v>
       </c>
       <c r="F25">
-        <v>1.066734029255496</v>
+        <v>1.043527908847275</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048138521034439</v>
+        <v>1.057716381403024</v>
       </c>
       <c r="J25">
-        <v>1.053036522763986</v>
+        <v>1.043598945151993</v>
       </c>
       <c r="K25">
-        <v>1.058915196373465</v>
+        <v>1.051907059879416</v>
       </c>
       <c r="L25">
-        <v>1.058279153916614</v>
+        <v>1.045581112567089</v>
       </c>
       <c r="M25">
-        <v>1.069692413101446</v>
+        <v>1.055486101727909</v>
       </c>
       <c r="N25">
-        <v>1.054531955411288</v>
+        <v>1.045080975356581</v>
       </c>
     </row>
   </sheetData>
